--- a/src/main/resources/com/example/vaccine/rules/VaccineAvailability.xlsx
+++ b/src/main/resources/com/example/vaccine/rules/VaccineAvailability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammadnasir.rasul/SR/vaccine-providers/src/main/resources/com/example/vaccine/rules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB73CA44-98EC-3547-A6AA-5A178B5A3524}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31816CE-346F-4A4A-AC6C-34B56C1FD43E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,12 +91,6 @@
     <t>AZ</t>
   </si>
   <si>
-    <t>Sunlight</t>
-  </si>
-  <si>
-    <t>Loanpal</t>
-  </si>
-  <si>
     <t>CA</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>IL</t>
   </si>
   <si>
-    <t>Greensky</t>
-  </si>
-  <si>
     <t>MA</t>
   </si>
   <si>
@@ -203,6 +194,15 @@
   </si>
   <si>
     <t>setCount($param);</t>
+  </si>
+  <si>
+    <t>BioN</t>
+  </si>
+  <si>
+    <t>PFZ</t>
+  </si>
+  <si>
+    <t>Moderna</t>
   </si>
 </sst>
 </file>
@@ -674,8 +674,8 @@
   </sheetPr>
   <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
@@ -732,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="5"/>
@@ -745,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -764,7 +764,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D7" s="42"/>
       <c r="E7" s="10"/>
@@ -818,16 +818,16 @@
         <v>9</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>53</v>
-      </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>11</v>
@@ -843,16 +843,16 @@
         <v>13</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>15</v>
@@ -864,14 +864,14 @@
         <v>16</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E12" s="25" t="b">
         <f t="shared" ref="E12:E146" si="0">TRUE</f>
         <v>1</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G12" s="26">
         <v>10</v>
@@ -890,14 +890,14 @@
         <v>16</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E13" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G13" s="26">
         <v>25</v>
@@ -916,14 +916,14 @@
         <v>16</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E14" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G14" s="26">
         <v>20</v>
@@ -942,14 +942,14 @@
         <v>16</v>
       </c>
       <c r="D15" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="24" t="s">
         <v>52</v>
-      </c>
-      <c r="E15" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>17</v>
       </c>
       <c r="G15" s="26">
         <v>20</v>
@@ -968,14 +968,14 @@
         <v>16</v>
       </c>
       <c r="D16" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="24" t="s">
         <v>52</v>
-      </c>
-      <c r="E16" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>17</v>
       </c>
       <c r="G16" s="26">
         <v>10</v>
@@ -994,14 +994,14 @@
         <v>16</v>
       </c>
       <c r="D17" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="24" t="s">
         <v>52</v>
-      </c>
-      <c r="E17" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>17</v>
       </c>
       <c r="G17" s="26">
         <v>25</v>
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G18" s="26">
         <v>10</v>
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G19" s="26">
         <v>20</v>
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G20" s="26">
         <v>25</v>
@@ -1101,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G21" s="26">
         <v>20</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="22" spans="3:13" ht="15.75" customHeight="1">
       <c r="C22" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="25" t="b">
@@ -1125,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G22" s="26">
         <v>25</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="23" spans="3:13" ht="15.75" customHeight="1">
       <c r="C23" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="25" t="b">
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G23" s="32">
         <v>10</v>
@@ -1165,17 +1165,17 @@
     </row>
     <row r="24" spans="3:13" ht="15.75" customHeight="1">
       <c r="C24" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E24" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G24" s="34">
         <v>10</v>
@@ -1191,17 +1191,17 @@
     </row>
     <row r="25" spans="3:13" ht="15.75" customHeight="1">
       <c r="C25" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E25" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G25" s="34">
         <v>20</v>
@@ -1217,17 +1217,17 @@
     </row>
     <row r="26" spans="3:13" ht="15.75" customHeight="1">
       <c r="C26" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E26" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G26" s="26">
         <v>10</v>
@@ -1243,17 +1243,17 @@
     </row>
     <row r="27" spans="3:13" ht="15.75" customHeight="1">
       <c r="C27" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E27" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G27" s="26">
         <v>25</v>
@@ -1269,17 +1269,17 @@
     </row>
     <row r="28" spans="3:13" ht="15.75" customHeight="1">
       <c r="C28" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E28" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G28" s="26">
         <v>10</v>
@@ -1295,17 +1295,17 @@
     </row>
     <row r="29" spans="3:13" ht="15.75" customHeight="1">
       <c r="C29" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E29" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G29" s="26">
         <v>25</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="30" spans="3:13" ht="15.75" customHeight="1">
       <c r="C30" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="25" t="b">
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G30" s="26">
         <v>10</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="31" spans="3:13" ht="15.75" customHeight="1">
       <c r="C31" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="25" t="b">
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G31" s="26">
         <v>25</v>
@@ -1369,17 +1369,17 @@
     </row>
     <row r="32" spans="3:13" ht="15.75" customHeight="1">
       <c r="C32" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E32" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G32" s="26">
         <v>10</v>
@@ -1395,17 +1395,17 @@
     </row>
     <row r="33" spans="3:9" ht="15.75" customHeight="1">
       <c r="C33" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E33" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G33" s="26">
         <v>20</v>
@@ -1421,17 +1421,17 @@
     </row>
     <row r="34" spans="3:9" ht="15.75" customHeight="1">
       <c r="C34" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E34" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G34" s="26">
         <v>10</v>
@@ -1447,17 +1447,17 @@
     </row>
     <row r="35" spans="3:9" ht="15.75" customHeight="1">
       <c r="C35" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E35" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G35" s="26">
         <v>20</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="36" spans="3:9" ht="15.75" customHeight="1">
       <c r="C36" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="25" t="b">
@@ -1481,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G36" s="26">
         <v>10</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="37" spans="3:9" ht="15.75" customHeight="1">
       <c r="C37" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="25" t="b">
@@ -1505,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G37" s="26">
         <v>20</v>
@@ -1521,17 +1521,17 @@
     </row>
     <row r="38" spans="3:9" ht="15.75" customHeight="1">
       <c r="C38" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E38" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G38" s="26">
         <v>10</v>
@@ -1547,17 +1547,17 @@
     </row>
     <row r="39" spans="3:9" ht="15.75" customHeight="1">
       <c r="C39" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E39" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G39" s="26">
         <v>25</v>
@@ -1573,17 +1573,17 @@
     </row>
     <row r="40" spans="3:9" ht="15.75" customHeight="1">
       <c r="C40" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E40" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G40" s="26">
         <v>10</v>
@@ -1599,17 +1599,17 @@
     </row>
     <row r="41" spans="3:9" ht="15.75" customHeight="1">
       <c r="C41" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E41" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G41" s="26">
         <v>25</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="42" spans="3:9" ht="15.75" customHeight="1">
       <c r="C42" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D42" s="23"/>
       <c r="E42" s="25" t="b">
@@ -1633,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G42" s="26">
         <v>10</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="43" spans="3:9" ht="15.75" customHeight="1">
       <c r="C43" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D43" s="23"/>
       <c r="E43" s="25" t="b">
@@ -1657,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G43" s="26">
         <v>25</v>
@@ -1673,17 +1673,17 @@
     </row>
     <row r="44" spans="3:9" ht="15.75" customHeight="1">
       <c r="C44" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E44" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G44" s="26">
         <v>10</v>
@@ -1699,17 +1699,17 @@
     </row>
     <row r="45" spans="3:9" ht="15.75" customHeight="1">
       <c r="C45" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E45" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G45" s="26">
         <v>20</v>
@@ -1725,17 +1725,17 @@
     </row>
     <row r="46" spans="3:9" ht="15.75" customHeight="1">
       <c r="C46" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E46" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G46" s="26">
         <v>10</v>
@@ -1751,17 +1751,17 @@
     </row>
     <row r="47" spans="3:9" ht="15.75" customHeight="1">
       <c r="C47" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E47" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G47" s="26">
         <v>20</v>
@@ -1777,17 +1777,17 @@
     </row>
     <row r="48" spans="3:9" ht="15.75" customHeight="1">
       <c r="C48" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E48" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G48" s="26">
         <v>10</v>
@@ -1803,17 +1803,17 @@
     </row>
     <row r="49" spans="3:9" ht="15.75" customHeight="1">
       <c r="C49" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E49" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G49" s="26">
         <v>25</v>
@@ -1829,17 +1829,17 @@
     </row>
     <row r="50" spans="3:9" ht="15.75" customHeight="1">
       <c r="C50" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E50" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G50" s="26">
         <v>10</v>
@@ -1855,17 +1855,17 @@
     </row>
     <row r="51" spans="3:9" ht="15.75" customHeight="1">
       <c r="C51" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E51" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G51" s="26">
         <v>25</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="52" spans="3:9" ht="15.75" customHeight="1">
       <c r="C52" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D52" s="23"/>
       <c r="E52" s="25" t="b">
@@ -1889,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G52" s="26">
         <v>10</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="53" spans="3:9" ht="15.75" customHeight="1">
       <c r="C53" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D53" s="23"/>
       <c r="E53" s="25" t="b">
@@ -1913,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G53" s="26">
         <v>25</v>
@@ -1929,17 +1929,17 @@
     </row>
     <row r="54" spans="3:9" ht="15.75" customHeight="1">
       <c r="C54" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E54" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G54" s="26">
         <v>10</v>
@@ -1955,17 +1955,17 @@
     </row>
     <row r="55" spans="3:9" ht="15.75" customHeight="1">
       <c r="C55" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E55" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G55" s="26">
         <v>20</v>
@@ -1981,17 +1981,17 @@
     </row>
     <row r="56" spans="3:9" ht="15.75" customHeight="1">
       <c r="C56" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E56" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G56" s="26">
         <v>10</v>
@@ -2007,17 +2007,17 @@
     </row>
     <row r="57" spans="3:9" ht="15.75" customHeight="1">
       <c r="C57" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E57" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G57" s="26">
         <v>20</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="58" spans="3:9" ht="15.75" customHeight="1">
       <c r="C58" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D58" s="23"/>
       <c r="E58" s="25" t="b">
@@ -2041,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G58" s="26">
         <v>10</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="59" spans="3:9" ht="15.75" customHeight="1">
       <c r="C59" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="25" t="b">
@@ -2065,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G59" s="26">
         <v>20</v>
@@ -2081,17 +2081,17 @@
     </row>
     <row r="60" spans="3:9" ht="15.75" customHeight="1">
       <c r="C60" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E60" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G60" s="26">
         <v>12</v>
@@ -2107,17 +2107,17 @@
     </row>
     <row r="61" spans="3:9" ht="15.75" customHeight="1">
       <c r="C61" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E61" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G61" s="26">
         <v>20</v>
@@ -2133,17 +2133,17 @@
     </row>
     <row r="62" spans="3:9" ht="15.75" customHeight="1">
       <c r="C62" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E62" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G62" s="26">
         <v>12</v>
@@ -2159,17 +2159,17 @@
     </row>
     <row r="63" spans="3:9" ht="15.75" customHeight="1">
       <c r="C63" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E63" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G63" s="26">
         <v>20</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="64" spans="3:9" ht="15.75" customHeight="1">
       <c r="C64" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D64" s="23"/>
       <c r="E64" s="25" t="b">
@@ -2193,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G64" s="26">
         <v>12</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="65" spans="3:9" ht="15.75" customHeight="1">
       <c r="C65" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D65" s="23"/>
       <c r="E65" s="25" t="b">
@@ -2217,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G65" s="26">
         <v>20</v>
@@ -2233,17 +2233,17 @@
     </row>
     <row r="66" spans="3:9" ht="15.75" customHeight="1">
       <c r="C66" s="22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E66" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G66" s="26">
         <v>10</v>
@@ -2259,17 +2259,17 @@
     </row>
     <row r="67" spans="3:9" ht="15.75" customHeight="1">
       <c r="C67" s="22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E67" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G67" s="26">
         <v>20</v>
@@ -2285,17 +2285,17 @@
     </row>
     <row r="68" spans="3:9" ht="15.75" customHeight="1">
       <c r="C68" s="22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E68" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G68" s="26">
         <v>10</v>
@@ -2311,17 +2311,17 @@
     </row>
     <row r="69" spans="3:9" ht="15.75" customHeight="1">
       <c r="C69" s="22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E69" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G69" s="26">
         <v>20</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="70" spans="3:9" ht="15.75" customHeight="1">
       <c r="C70" s="22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D70" s="23"/>
       <c r="E70" s="25" t="b">
@@ -2345,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G70" s="26">
         <v>10</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="71" spans="3:9" ht="15.75" customHeight="1">
       <c r="C71" s="22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D71" s="23"/>
       <c r="E71" s="25" t="b">
@@ -2369,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G71" s="26">
         <v>20</v>
@@ -2385,17 +2385,17 @@
     </row>
     <row r="72" spans="3:9" ht="15.75" customHeight="1">
       <c r="C72" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E72" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G72" s="26">
         <v>10</v>
@@ -2411,17 +2411,17 @@
     </row>
     <row r="73" spans="3:9" ht="15.75" customHeight="1">
       <c r="C73" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E73" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G73" s="26">
         <v>25</v>
@@ -2437,17 +2437,17 @@
     </row>
     <row r="74" spans="3:9" ht="15.75" customHeight="1">
       <c r="C74" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E74" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G74" s="26">
         <v>10</v>
@@ -2463,17 +2463,17 @@
     </row>
     <row r="75" spans="3:9" ht="15.75" customHeight="1">
       <c r="C75" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E75" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G75" s="26">
         <v>25</v>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="76" spans="3:9" ht="15.75" customHeight="1">
       <c r="C76" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D76" s="23"/>
       <c r="E76" s="25" t="b">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G76" s="26">
         <v>10</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="77" spans="3:9" ht="15.75" customHeight="1">
       <c r="C77" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D77" s="23"/>
       <c r="E77" s="25" t="b">
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G77" s="26">
         <v>25</v>
@@ -2537,17 +2537,17 @@
     </row>
     <row r="78" spans="3:9" ht="15.75" customHeight="1">
       <c r="C78" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E78" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G78" s="26">
         <v>10</v>
@@ -2563,17 +2563,17 @@
     </row>
     <row r="79" spans="3:9" ht="15.75" customHeight="1">
       <c r="C79" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E79" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G79" s="26">
         <v>20</v>
@@ -2589,17 +2589,17 @@
     </row>
     <row r="80" spans="3:9" ht="15.75" customHeight="1">
       <c r="C80" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E80" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G80" s="26">
         <v>10</v>
@@ -2615,17 +2615,17 @@
     </row>
     <row r="81" spans="3:9" ht="15.75" customHeight="1">
       <c r="C81" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E81" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G81" s="26">
         <v>20</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="82" spans="3:9" ht="15.75" customHeight="1">
       <c r="C82" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D82" s="23"/>
       <c r="E82" s="25" t="b">
@@ -2649,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G82" s="26">
         <v>10</v>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="83" spans="3:9" ht="15.75" customHeight="1">
       <c r="C83" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D83" s="23"/>
       <c r="E83" s="25" t="b">
@@ -2673,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G83" s="26">
         <v>20</v>
@@ -2689,17 +2689,17 @@
     </row>
     <row r="84" spans="3:9" ht="15.75" customHeight="1">
       <c r="C84" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E84" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G84" s="26">
         <v>10</v>
@@ -2715,17 +2715,17 @@
     </row>
     <row r="85" spans="3:9" ht="15.75" customHeight="1">
       <c r="C85" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E85" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G85" s="26">
         <v>20</v>
@@ -2741,17 +2741,17 @@
     </row>
     <row r="86" spans="3:9" ht="15.75" customHeight="1">
       <c r="C86" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E86" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G86" s="26">
         <v>10</v>
@@ -2767,17 +2767,17 @@
     </row>
     <row r="87" spans="3:9" ht="15.75" customHeight="1">
       <c r="C87" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E87" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G87" s="26">
         <v>20</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="88" spans="3:9" ht="13">
       <c r="C88" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D88" s="23"/>
       <c r="E88" s="25" t="b">
@@ -2801,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G88" s="26">
         <v>10</v>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="89" spans="3:9" ht="13">
       <c r="C89" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D89" s="23"/>
       <c r="E89" s="25" t="b">
@@ -2825,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G89" s="26">
         <v>20</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="90" spans="3:9" ht="13">
       <c r="C90" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D90" s="23"/>
       <c r="E90" s="25" t="b">
@@ -2849,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G90" s="26">
         <v>25</v>
@@ -2865,17 +2865,17 @@
     </row>
     <row r="91" spans="3:9" ht="13">
       <c r="C91" s="22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E91" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G91" s="26">
         <v>10</v>
@@ -2891,17 +2891,17 @@
     </row>
     <row r="92" spans="3:9" ht="13">
       <c r="C92" s="22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E92" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G92" s="26">
         <v>25</v>
@@ -2917,17 +2917,17 @@
     </row>
     <row r="93" spans="3:9" ht="13">
       <c r="C93" s="22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E93" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G93" s="26">
         <v>10</v>
@@ -2943,17 +2943,17 @@
     </row>
     <row r="94" spans="3:9" ht="13">
       <c r="C94" s="22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E94" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F94" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G94" s="26">
         <v>25</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="95" spans="3:9" ht="13">
       <c r="C95" s="22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D95" s="23"/>
       <c r="E95" s="25" t="b">
@@ -2977,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G95" s="26">
         <v>10</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="96" spans="3:9" ht="13">
       <c r="C96" s="22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D96" s="23"/>
       <c r="E96" s="25" t="b">
@@ -3001,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G96" s="26">
         <v>25</v>
@@ -3017,17 +3017,17 @@
     </row>
     <row r="97" spans="3:9" ht="13">
       <c r="C97" s="22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E97" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F97" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G97" s="26">
         <v>10</v>
@@ -3043,17 +3043,17 @@
     </row>
     <row r="98" spans="3:9" ht="13">
       <c r="C98" s="22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E98" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F98" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G98" s="26">
         <v>25</v>
@@ -3069,17 +3069,17 @@
     </row>
     <row r="99" spans="3:9" ht="13">
       <c r="C99" s="22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E99" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F99" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G99" s="26">
         <v>10</v>
@@ -3095,17 +3095,17 @@
     </row>
     <row r="100" spans="3:9" ht="13">
       <c r="C100" s="22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E100" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F100" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G100" s="26">
         <v>25</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="101" spans="3:9" ht="13">
       <c r="C101" s="22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D101" s="23"/>
       <c r="E101" s="25" t="b">
@@ -3129,7 +3129,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G101" s="26">
         <v>10</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="102" spans="3:9" ht="13">
       <c r="C102" s="22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D102" s="23"/>
       <c r="E102" s="25" t="b">
@@ -3153,7 +3153,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G102" s="26">
         <v>25</v>
@@ -3169,17 +3169,17 @@
     </row>
     <row r="103" spans="3:9" ht="13">
       <c r="C103" s="22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E103" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F103" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G103" s="26">
         <v>10</v>
@@ -3195,17 +3195,17 @@
     </row>
     <row r="104" spans="3:9" ht="13">
       <c r="C104" s="22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E104" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F104" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G104" s="26">
         <v>25</v>
@@ -3221,17 +3221,17 @@
     </row>
     <row r="105" spans="3:9" ht="13">
       <c r="C105" s="22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E105" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F105" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G105" s="26">
         <v>10</v>
@@ -3247,17 +3247,17 @@
     </row>
     <row r="106" spans="3:9" ht="13">
       <c r="C106" s="22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E106" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F106" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G106" s="26">
         <v>25</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="107" spans="3:9" ht="13">
       <c r="C107" s="22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D107" s="23"/>
       <c r="E107" s="25" t="b">
@@ -3281,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="F107" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G107" s="26">
         <v>10</v>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="108" spans="3:9" ht="13">
       <c r="C108" s="22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D108" s="23"/>
       <c r="E108" s="25" t="b">
@@ -3305,7 +3305,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G108" s="26">
         <v>25</v>
@@ -3321,17 +3321,17 @@
     </row>
     <row r="109" spans="3:9" ht="13">
       <c r="C109" s="22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E109" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F109" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G109" s="26">
         <v>10</v>
@@ -3347,17 +3347,17 @@
     </row>
     <row r="110" spans="3:9" ht="13">
       <c r="C110" s="22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E110" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F110" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G110" s="26">
         <v>25</v>
@@ -3373,17 +3373,17 @@
     </row>
     <row r="111" spans="3:9" ht="13">
       <c r="C111" s="22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E111" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F111" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G111" s="26">
         <v>10</v>
@@ -3399,17 +3399,17 @@
     </row>
     <row r="112" spans="3:9" ht="13">
       <c r="C112" s="22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E112" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F112" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G112" s="26">
         <v>25</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="113" spans="3:9" ht="13">
       <c r="C113" s="22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D113" s="23"/>
       <c r="E113" s="25" t="b">
@@ -3433,7 +3433,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G113" s="26">
         <v>10</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="114" spans="3:9" ht="13">
       <c r="C114" s="22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D114" s="23"/>
       <c r="E114" s="25" t="b">
@@ -3457,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G114" s="26">
         <v>25</v>
@@ -3473,17 +3473,17 @@
     </row>
     <row r="115" spans="3:9" ht="13">
       <c r="C115" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E115" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F115" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G115" s="26">
         <v>10</v>
@@ -3499,17 +3499,17 @@
     </row>
     <row r="116" spans="3:9" ht="13">
       <c r="C116" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E116" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F116" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G116" s="26">
         <v>20</v>
@@ -3525,17 +3525,17 @@
     </row>
     <row r="117" spans="3:9" ht="13">
       <c r="C117" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E117" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F117" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G117" s="26">
         <v>10</v>
@@ -3551,17 +3551,17 @@
     </row>
     <row r="118" spans="3:9" ht="13">
       <c r="C118" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E118" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F118" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G118" s="26">
         <v>20</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="119" spans="3:9" ht="13">
       <c r="C119" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D119" s="23"/>
       <c r="E119" s="25" t="b">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G119" s="26">
         <v>10</v>
@@ -3601,7 +3601,7 @@
     </row>
     <row r="120" spans="3:9" ht="13">
       <c r="C120" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D120" s="23"/>
       <c r="E120" s="25" t="b">
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G120" s="26">
         <v>20</v>
@@ -3625,17 +3625,17 @@
     </row>
     <row r="121" spans="3:9" ht="13">
       <c r="C121" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E121" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F121" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G121" s="26">
         <v>10</v>
@@ -3651,17 +3651,17 @@
     </row>
     <row r="122" spans="3:9" ht="13">
       <c r="C122" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D122" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E122" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F122" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G122" s="26">
         <v>25</v>
@@ -3677,17 +3677,17 @@
     </row>
     <row r="123" spans="3:9" ht="13">
       <c r="C123" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D123" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E123" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F123" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G123" s="26">
         <v>10</v>
@@ -3703,17 +3703,17 @@
     </row>
     <row r="124" spans="3:9" ht="13">
       <c r="C124" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D124" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E124" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F124" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G124" s="26">
         <v>25</v>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="125" spans="3:9" ht="13">
       <c r="C125" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D125" s="23"/>
       <c r="E125" s="25" t="b">
@@ -3737,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G125" s="26">
         <v>10</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="126" spans="3:9" ht="13">
       <c r="C126" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D126" s="23"/>
       <c r="E126" s="25" t="b">
@@ -3761,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G126" s="26">
         <v>25</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="127" spans="3:9" ht="13">
       <c r="C127" s="35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D127" s="36"/>
       <c r="E127" s="25" t="b">
@@ -3785,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="37" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G127" s="38">
         <v>10</v>
@@ -3801,7 +3801,7 @@
     </row>
     <row r="128" spans="3:9" ht="13">
       <c r="C128" s="35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D128" s="36"/>
       <c r="E128" s="25" t="b">
@@ -3809,7 +3809,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="37" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G128" s="38">
         <v>25</v>
@@ -3825,17 +3825,17 @@
     </row>
     <row r="129" spans="3:9" ht="13">
       <c r="C129" s="22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E129" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F129" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G129" s="26">
         <v>10</v>
@@ -3851,17 +3851,17 @@
     </row>
     <row r="130" spans="3:9" ht="13">
       <c r="C130" s="22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E130" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F130" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G130" s="26">
         <v>20</v>
@@ -3877,17 +3877,17 @@
     </row>
     <row r="131" spans="3:9" ht="13">
       <c r="C131" s="22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E131" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F131" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G131" s="26">
         <v>25</v>
@@ -3903,17 +3903,17 @@
     </row>
     <row r="132" spans="3:9" ht="13">
       <c r="C132" s="22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E132" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F132" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G132" s="26">
         <v>10</v>
@@ -3929,17 +3929,17 @@
     </row>
     <row r="133" spans="3:9" ht="13">
       <c r="C133" s="22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E133" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F133" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G133" s="26">
         <v>20</v>
@@ -3955,17 +3955,17 @@
     </row>
     <row r="134" spans="3:9" ht="13">
       <c r="C134" s="22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E134" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F134" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G134" s="26">
         <v>25</v>
@@ -3981,17 +3981,17 @@
     </row>
     <row r="135" spans="3:9" ht="13">
       <c r="C135" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D135" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E135" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F135" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G135" s="26">
         <v>10</v>
@@ -4007,17 +4007,17 @@
     </row>
     <row r="136" spans="3:9" ht="13">
       <c r="C136" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D136" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E136" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F136" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G136" s="26">
         <v>20</v>
@@ -4033,17 +4033,17 @@
     </row>
     <row r="137" spans="3:9" ht="13">
       <c r="C137" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E137" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F137" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G137" s="26">
         <v>25</v>
@@ -4059,17 +4059,17 @@
     </row>
     <row r="138" spans="3:9" ht="13">
       <c r="C138" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E138" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F138" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G138" s="26">
         <v>10</v>
@@ -4085,17 +4085,17 @@
     </row>
     <row r="139" spans="3:9" ht="13">
       <c r="C139" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D139" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E139" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F139" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G139" s="26">
         <v>20</v>
@@ -4111,17 +4111,17 @@
     </row>
     <row r="140" spans="3:9" ht="13">
       <c r="C140" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D140" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E140" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F140" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G140" s="26">
         <v>25</v>
@@ -4137,17 +4137,17 @@
     </row>
     <row r="141" spans="3:9" ht="13">
       <c r="C141" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D141" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E141" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F141" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G141" s="26">
         <v>10</v>
@@ -4163,17 +4163,17 @@
     </row>
     <row r="142" spans="3:9" ht="13">
       <c r="C142" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E142" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F142" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G142" s="26">
         <v>20</v>
@@ -4189,17 +4189,17 @@
     </row>
     <row r="143" spans="3:9" ht="13">
       <c r="C143" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D143" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E143" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F143" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G143" s="26">
         <v>10</v>
@@ -4215,17 +4215,17 @@
     </row>
     <row r="144" spans="3:9" ht="13">
       <c r="C144" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D144" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E144" s="25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F144" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G144" s="26">
         <v>20</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="145" spans="3:9" ht="13">
       <c r="C145" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D145" s="23"/>
       <c r="E145" s="25" t="b">
@@ -4249,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G145" s="26">
         <v>10</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="146" spans="3:9" ht="13">
       <c r="C146" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D146" s="23"/>
       <c r="E146" s="25" t="b">
@@ -4273,7 +4273,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G146" s="26">
         <v>20</v>
